--- a/boards/boardtemplate.xlsx
+++ b/boards/boardtemplate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>id</t>
   </si>
@@ -34,33 +34,6 @@
   </si>
   <si>
     <t>t</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
   </si>
 </sst>
 </file>
@@ -416,7 +389,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,34 +408,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1">
         <v>6</v>
       </c>
       <c r="C3" s="1">
@@ -472,152 +433,32 @@
         <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>6</v>
-      </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4</v>
-      </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4</v>
-      </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5</v>
-      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5</v>
-      </c>
       <c r="F11" s="2"/>
     </row>
   </sheetData>

--- a/boards/boardtemplate.xlsx
+++ b/boards/boardtemplate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -34,6 +34,21 @@
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
 </sst>
 </file>
@@ -389,7 +404,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,34 +431,91 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>6</v>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
